--- a/IV. IT, Math & Educational management/ITMOM-results.xlsx
+++ b/IV. IT, Math & Educational management/ITMOM-results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Име</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Факултенен номер</t>
   </si>
   <si>
-    <t>Оценка</t>
-  </si>
-  <si>
     <t>Дейвид Младенов</t>
   </si>
   <si>
@@ -62,6 +59,15 @@
   </si>
   <si>
     <t>Мартин Василев Мартинов</t>
+  </si>
+  <si>
+    <t>Оценка контролно 1</t>
+  </si>
+  <si>
+    <t>Оценка контролно 2</t>
+  </si>
+  <si>
+    <t>Текуща оценка</t>
   </si>
 </sst>
 </file>
@@ -120,15 +126,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C14" totalsRowShown="0">
-  <autoFilter ref="A1:C14"/>
-  <sortState ref="A2:C13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
+  <autoFilter ref="A1:E14"/>
+  <sortState ref="A2:E13">
     <sortCondition ref="B1:B14"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="5">
     <tableColumn id="1" name="Име"/>
     <tableColumn id="2" name="Факултенен номер"/>
-    <tableColumn id="3" name="Оценка"/>
+    <tableColumn id="3" name="Оценка контролно 1"/>
+    <tableColumn id="4" name="Оценка контролно 2"/>
+    <tableColumn id="5" name="Текуща оценка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -421,20 +429,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="19.54296875" customWidth="1"/>
     <col min="3" max="3" width="24.54296875" customWidth="1"/>
+    <col min="4" max="4" width="26.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,12 +450,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1601651002</v>
@@ -455,105 +469,192 @@
       <c r="C2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1601651003</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1601651009</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1601651010</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1601651011</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1601651013</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>1601651009</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1601651011</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B8">
+        <v>1601651014</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1601651015</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1601651018</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>1601651014</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
+      <c r="B11">
         <v>1601651019</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
